--- a/measurement/Spostamento del collo di bottiglia.xlsx
+++ b/measurement/Spostamento del collo di bottiglia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidedeleonardis/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidedeleonardis/Desktop/Developer/Progettazione di un nodo FastFlow per integrazione di acceleratori - TESI Unipi/measurement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA55E6D-720C-7342-A7EE-74375C4C99FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3094EC79-6061-914D-8D8D-8F6095138BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32160" yWindow="500" windowWidth="29680" windowHeight="28280" xr2:uid="{ADC5062E-8C55-4C4D-9003-3DB3F3204DA4}"/>
   </bookViews>
@@ -41,13 +41,13 @@
     <t>FPGA</t>
   </si>
   <si>
-    <t>vecAdd</t>
+    <t>vsum</t>
   </si>
   <si>
-    <t>polynomial_op</t>
+    <t>poly</t>
   </si>
   <si>
-    <t>heavy_compute</t>
+    <t>heavy</t>
   </si>
 </sst>
 </file>
@@ -229,13 +229,13 @@
                 <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>vecAdd</c:v>
+                    <c:v>vsum</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>polynomial_op</c:v>
+                    <c:v>poly</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>heavy_compute</c:v>
+                    <c:v>heavy</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -299,13 +299,13 @@
                 <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>vecAdd</c:v>
+                    <c:v>vsum</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>polynomial_op</c:v>
+                    <c:v>poly</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>heavy_compute</c:v>
+                    <c:v>heavy</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1564,7 +1564,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
